--- a/input_data/admin_data/CHL/gpinter_CHL_2008.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2008.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,42 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +429,82 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J75"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +760,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +792,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D2">
-        <v>1045921.08238138</v>
+        <v>2010612.8556717001</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F2">
-        <v>18776.417238888302</v>
+        <v>1408.8077184772701</v>
       </c>
       <c r="G2">
-        <v>0.99996593729189898</v>
+        <v>0.99999988822061503</v>
       </c>
       <c r="H2">
-        <v>2988244.1585052898</v>
+        <v>4277899.2147375103</v>
       </c>
       <c r="I2">
-        <v>44497.230668903998</v>
+        <v>23976.794391179901</v>
       </c>
       <c r="J2">
-        <v>159.148793962475</v>
+        <v>3036.5387402628298</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +824,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F3">
-        <v>70946.637531152694</v>
+        <v>47025.982386156596</v>
       </c>
       <c r="G3">
-        <v>0.99954050145913398</v>
+        <v>0.99988063704640995</v>
       </c>
       <c r="H3">
-        <v>3074824.9505004799</v>
+        <v>4370375.7890928704</v>
       </c>
       <c r="I3">
-        <v>98905.832333178507</v>
+        <v>71061.397815635399</v>
       </c>
       <c r="J3">
-        <v>43.339967297961401</v>
+        <v>92.935342704917304</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +854,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F4">
-        <v>127646.892723507</v>
+        <v>95602.023416329699</v>
       </c>
       <c r="G4">
-        <v>0.99859486766324601</v>
+        <v>0.99952720551624097</v>
       </c>
       <c r="H4">
-        <v>3165004.31771767</v>
+        <v>4465916.1088990299</v>
       </c>
       <c r="I4">
-        <v>158007.677166679</v>
+        <v>121177.81428218599</v>
       </c>
       <c r="J4">
-        <v>24.794996965365399</v>
+        <v>46.713614935227497</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +884,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F5">
-        <v>189207.01454176501</v>
+        <v>147283.74390408001</v>
       </c>
       <c r="G5">
-        <v>0.99708416403724298</v>
+        <v>0.99892451458078702</v>
       </c>
       <c r="H5">
-        <v>3258972.9627348902</v>
+        <v>4564660.1610494098</v>
       </c>
       <c r="I5">
-        <v>222142.9525096</v>
+        <v>174475.61194891299</v>
       </c>
       <c r="J5">
-        <v>17.2243770698866</v>
+        <v>30.992287675836</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +914,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F6">
-        <v>255977.651022117</v>
+        <v>202223.46142300399</v>
       </c>
       <c r="G6">
-        <v>0.99496026619971401</v>
+        <v>0.998056741297348</v>
       </c>
       <c r="H6">
-        <v>3356935.2211292498</v>
+        <v>4666757.4761447702</v>
       </c>
       <c r="I6">
-        <v>291672.94955580099</v>
+        <v>231109.83858068401</v>
       </c>
       <c r="J6">
-        <v>13.1141730839588</v>
+        <v>23.077230719451599</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +944,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F7">
-        <v>328330.81189577602</v>
+        <v>260578.94007592701</v>
       </c>
       <c r="G7">
-        <v>0.99217159548192202</v>
+        <v>0.99690729157643998</v>
       </c>
       <c r="H7">
-        <v>3459110.6301817</v>
+        <v>4772368.1341820098</v>
       </c>
       <c r="I7">
-        <v>366980.50884744601</v>
+        <v>291240.93753847602</v>
       </c>
       <c r="J7">
-        <v>10.5354432324181</v>
+        <v>18.314481334490999</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +974,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F8">
-        <v>406660.202859357</v>
+        <v>322513.27892964601</v>
       </c>
       <c r="G8">
-        <v>0.98866291289554697</v>
+        <v>0.99545877334620503</v>
       </c>
       <c r="H8">
-        <v>3565735.8067794298</v>
+        <v>4881663.9194660001</v>
       </c>
       <c r="I8">
-        <v>448470.21773060202</v>
+        <v>355034.60544504802</v>
       </c>
       <c r="J8">
-        <v>8.76834217291883</v>
+        <v>15.1363191483688</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +1004,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F9">
-        <v>491381.27183684002</v>
+        <v>388194.73720690003</v>
       </c>
       <c r="G9">
-        <v>0.98437511121256005</v>
+        <v>0.99369297042475502</v>
       </c>
       <c r="H9">
-        <v>3677066.72067403</v>
+        <v>4994829.6523165302</v>
       </c>
       <c r="I9">
-        <v>536568.27303594898</v>
+        <v>422661.58128918801</v>
       </c>
       <c r="J9">
-        <v>7.4831234550896397</v>
+        <v>12.8668144453859</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1034,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F10">
-        <v>582930.86989649304</v>
+        <v>457796.48537665699</v>
       </c>
       <c r="G10">
-        <v>0.97924500835800898</v>
+        <v>0.99159081744141497</v>
       </c>
       <c r="H10">
-        <v>3793381.47799396</v>
+        <v>5112064.7310608197</v>
       </c>
       <c r="I10">
-        <v>631721.89937568596</v>
+        <v>494297.35544947902</v>
       </c>
       <c r="J10">
-        <v>6.5074293949598703</v>
+        <v>11.166675355436199</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1064,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="F11">
-        <v>681766.404056211</v>
+        <v>531496.26999659999</v>
       </c>
       <c r="G11">
-        <v>0.97320514636443201</v>
+        <v>0.98913237620517602</v>
       </c>
       <c r="H11">
-        <v>3914983.7694792799</v>
+        <v>5233584.9251558501</v>
       </c>
       <c r="I11">
-        <v>734398.18511106004</v>
+        <v>570121.78587727598</v>
       </c>
       <c r="J11">
-        <v>5.7424122781451903</v>
+        <v>9.8468892833233603</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1094,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="F12">
-        <v>788364.32769717195</v>
+        <v>609475.97886881197</v>
       </c>
       <c r="G12">
-        <v>0.96618360145552695</v>
+        <v>0.98629681398210101</v>
       </c>
       <c r="H12">
-        <v>4042207.19285401</v>
+        <v>5359624.4694606801</v>
       </c>
       <c r="I12">
-        <v>845082.16294050205</v>
+        <v>650318.607339832</v>
       </c>
       <c r="J12">
-        <v>5.1273339632976196</v>
+        <v>8.7938239656436394</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1124,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F13">
-        <v>903217.77546922897</v>
+        <v>691921.09185484704</v>
       </c>
       <c r="G13">
-        <v>0.958103812481235</v>
+        <v>0.98306238421355896</v>
       </c>
       <c r="H13">
-        <v>4175420.7357670702</v>
+        <v>5490438.5211862596</v>
       </c>
       <c r="I13">
-        <v>964273.91903139395</v>
+        <v>735074.81857884605</v>
       </c>
       <c r="J13">
-        <v>4.6228283467936704</v>
+        <v>7.9350645410561604</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1154,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F14">
-        <v>1026833.10210755</v>
+        <v>779020.00169389299</v>
       </c>
       <c r="G14">
-        <v>0.948884436992255</v>
+        <v>0.97940641028249897</v>
       </c>
       <c r="H14">
-        <v>4315035.8147555804</v>
+        <v>5626306.05554647</v>
       </c>
       <c r="I14">
-        <v>1092484.4623621299</v>
+        <v>824579.93137429794</v>
       </c>
       <c r="J14">
-        <v>4.2022757212433604</v>
+        <v>7.2222870315430798</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1184,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F15">
-        <v>1159725.0273146401</v>
+        <v>870963.18859117304</v>
       </c>
       <c r="G15">
-        <v>0.93843924680759305</v>
+        <v>0.97530527301458503</v>
       </c>
       <c r="H15">
-        <v>4461515.4216825496</v>
+        <v>5767533.2944927104</v>
       </c>
       <c r="I15">
-        <v>1230230.0234151899</v>
+        <v>919025.06529068504</v>
       </c>
       <c r="J15">
-        <v>3.8470459088162099</v>
+        <v>6.6220172907904304</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1214,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F16">
-        <v>1302410.021196</v>
+        <v>967942.23252544401</v>
       </c>
       <c r="G16">
-        <v>0.92667707809201305</v>
+        <v>0.97073440268169997</v>
       </c>
       <c r="H16">
-        <v>4615386.15493338</v>
+        <v>5914457.7862867098</v>
       </c>
       <c r="I16">
-        <v>1378024.37886154</v>
+        <v>1018601.87265792</v>
       </c>
       <c r="J16">
-        <v>3.54372745895727</v>
+        <v>6.1103416996853097</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1244,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F17">
-        <v>1455397.4875694001</v>
+        <v>1070148.6486785901</v>
       </c>
       <c r="G17">
-        <v>0.91350185481681101</v>
+        <v>0.965668276352185</v>
       </c>
       <c r="H17">
-        <v>4777254.2437369702</v>
+        <v>6067453.2835876103</v>
       </c>
       <c r="I17">
-        <v>1536368.7184313999</v>
+        <v>1123501.28072289</v>
       </c>
       <c r="J17">
-        <v>3.2824395290906199</v>
+        <v>5.6697294259817399</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1274,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F18">
-        <v>1619178.2201143301</v>
+        <v>1177772.5349117699</v>
       </c>
       <c r="G18">
-        <v>0.89881270910293598</v>
+        <v>0.96008042149711603</v>
       </c>
       <c r="H18">
-        <v>4947827.1661214801</v>
+        <v>6226935.6062606703</v>
       </c>
       <c r="I18">
-        <v>1705738.48970074</v>
+        <v>1233912.0429721801</v>
       </c>
       <c r="J18">
-        <v>3.0557644023720401</v>
+        <v>5.2870443329934904</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1304,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F19">
-        <v>1794209.5304431301</v>
+        <v>1291001.0270248801</v>
       </c>
       <c r="G19">
-        <v>0.88250422734045897</v>
+        <v>0.95394342680173505</v>
       </c>
       <c r="H19">
-        <v>5127943.2037004102</v>
+        <v>6393369.7250369499</v>
       </c>
       <c r="I19">
-        <v>1886566.5940874501</v>
+        <v>1350019.10081835</v>
       </c>
       <c r="J19">
-        <v>2.8580514798814498</v>
+        <v>4.9522576599110097</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1334,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F20">
-        <v>1980896.40486065</v>
+        <v>1410016.56953417</v>
       </c>
       <c r="G20">
-        <v>0.86446685697029602</v>
+        <v>0.94722896112521304</v>
       </c>
       <c r="H20">
-        <v>5318612.4160305802</v>
+        <v>6567278.3672513803</v>
       </c>
       <c r="I20">
-        <v>2079222.3046061399</v>
+        <v>1472001.7726171301</v>
       </c>
       <c r="J20">
-        <v>2.6849523291475301</v>
+        <v>4.6575894986971997</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1364,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F21">
-        <v>2179568.0973590901</v>
+        <v>1534995.02982774</v>
       </c>
       <c r="G21">
-        <v>0.84458751483224404</v>
+        <v>0.93990780146752495</v>
       </c>
       <c r="H21">
-        <v>5521074.2979946099</v>
+        <v>6749252.5313454596</v>
       </c>
       <c r="I21">
-        <v>2283985.42221061</v>
+        <v>1600031.81298244</v>
       </c>
       <c r="J21">
-        <v>2.5331047489107199</v>
+        <v>4.3969214233240104</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1394,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F22">
-        <v>2390449.8386078598</v>
+        <v>1666103.7164108001</v>
       </c>
       <c r="G22">
-        <v>0.82275044260294705</v>
+        <v>0.93194987058854495</v>
       </c>
       <c r="H22">
-        <v>5736880.22304687</v>
+        <v>6939964.4098033505</v>
       </c>
       <c r="I22">
-        <v>2501015.6762728598</v>
+        <v>1734271.4274690901</v>
       </c>
       <c r="J22">
-        <v>2.39991658908346</v>
+        <v>4.1653855888118203</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1424,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F23">
-        <v>2613630.1116913902</v>
+        <v>1803499.4147817199</v>
       </c>
       <c r="G23">
-        <v>0.79883835479438603</v>
+        <v>0.92332428450131299</v>
       </c>
       <c r="H23">
-        <v>5968013.4049592996</v>
+        <v>7140183.3706623605</v>
       </c>
       <c r="I23">
-        <v>2730318.62675972</v>
+        <v>1874871.3950595399</v>
       </c>
       <c r="J23">
-        <v>2.28341928655587</v>
+        <v>3.9590716315960401</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1454,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="F24">
-        <v>2849025.8245056099</v>
+        <v>1947326.6388244601</v>
       </c>
       <c r="G24">
-        <v>0.77273391275997105</v>
+        <v>0.91399940930333201</v>
       </c>
       <c r="H24">
-        <v>6217066.8494362002</v>
+        <v>7350795.8496864801</v>
       </c>
       <c r="I24">
-        <v>2971712.2800143799</v>
+        <v>2021969.5583659699</v>
       </c>
       <c r="J24">
-        <v>2.1821728662340298</v>
+        <v>3.7748139953161202</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1484,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F25">
-        <v>3096352.07260889</v>
+        <v>2097716.4300293601</v>
       </c>
       <c r="G25">
-        <v>0.74432151788551004</v>
+        <v>0.90394292551699695</v>
       </c>
       <c r="H25">
-        <v>6487513.06355468</v>
+        <v>7572830.2784914998</v>
       </c>
       <c r="I25">
-        <v>3224805.4517161101</v>
+        <v>2175690.1128270701</v>
       </c>
       <c r="J25">
-        <v>2.0952116915078398</v>
+        <v>3.6100352602880301</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1514,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F26">
-        <v>3355113.2640134702</v>
+        <v>2254786.2516243602</v>
       </c>
       <c r="G26">
-        <v>0.71348931165085006</v>
+        <v>0.89312189596528702</v>
       </c>
       <c r="H26">
-        <v>6784122.8464491004</v>
+        <v>7807488.54656386</v>
       </c>
       <c r="I26">
-        <v>3489014.8144056601</v>
+        <v>2336144.4008634798</v>
       </c>
       <c r="J26">
-        <v>2.02202498473443</v>
+        <v>3.4626291254611501</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1544,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F27">
-        <v>3624656.11246503</v>
+        <v>2418641.8698159</v>
       </c>
       <c r="G27">
-        <v>0.68013101270097298</v>
+        <v>0.88150282969763905</v>
       </c>
       <c r="H27">
-        <v>7113633.6496534403</v>
+        <v>8056186.0077320598</v>
       </c>
       <c r="I27">
-        <v>3763685.80565381</v>
+        <v>2503434.3602353102</v>
       </c>
       <c r="J27">
-        <v>1.96256787649178</v>
+        <v>3.3308718038298402</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1574,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F28">
-        <v>3904383.1078971699</v>
+        <v>2589382.6737448899</v>
       </c>
       <c r="G28">
-        <v>0.64414659792003603</v>
+        <v>0.869051728765038</v>
       </c>
       <c r="H28">
-        <v>7485850.07676451</v>
+        <v>8320602.75285096</v>
       </c>
       <c r="I28">
-        <v>4048479.09604502</v>
+        <v>2677660.49863191</v>
       </c>
       <c r="J28">
-        <v>1.9172939411666099</v>
+        <v>3.2133538380471598</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1604,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F29">
-        <v>4194375.4506496601</v>
+        <v>2767112.8027830399</v>
       </c>
       <c r="G29">
-        <v>0.60543928850403905</v>
+        <v>0.85573409533263201</v>
       </c>
       <c r="H29">
-        <v>7915521.4493544502</v>
+        <v>8602749.86556191</v>
       </c>
       <c r="I29">
-        <v>4344444.6167306704</v>
+        <v>2858937.4599935701</v>
       </c>
       <c r="J29">
-        <v>1.8871752284665999</v>
+        <v>3.10892633538815</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1634,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F30">
-        <v>4497093.2605687398</v>
+        <v>2951961.9737730501</v>
       </c>
       <c r="G30">
-        <v>0.56390226730891102</v>
+        <v>0.84151486137155995</v>
       </c>
       <c r="H30">
-        <v>8425675.28258642</v>
+        <v>8905055.7816444505</v>
       </c>
       <c r="I30">
-        <v>4656969.7163835298</v>
+        <v>3047422.2483708402</v>
       </c>
       <c r="J30">
-        <v>1.87358251083297</v>
+        <v>3.0166566713128899</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1664,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F31">
-        <v>4822101.74436046</v>
+        <v>3144122.4745338499</v>
       </c>
       <c r="G31">
-        <v>0.51937720901502504</v>
+        <v>0.82635817797637301</v>
       </c>
       <c r="H31">
-        <v>9053792.8769535609</v>
+        <v>9230479.8668263201</v>
       </c>
       <c r="I31">
-        <v>5004291.5991997803</v>
+        <v>3243363.5867948001</v>
       </c>
       <c r="J31">
-        <v>1.8775615606912801</v>
+        <v>2.93578890186039</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1694,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F32">
-        <v>5200181.7268769499</v>
+        <v>3343913.2174625299</v>
       </c>
       <c r="G32">
-        <v>0.471531423290868</v>
+        <v>0.81022695919078902</v>
       </c>
       <c r="H32">
-        <v>9863693.1325043198</v>
+        <v>9582663.1774164103</v>
       </c>
       <c r="I32">
-        <v>5444679.6110858703</v>
+        <v>3447186.8237684998</v>
       </c>
       <c r="J32">
-        <v>1.8967977756477601</v>
+        <v>2.8657033105326999</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1724,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F33">
-        <v>5730830.2436346496</v>
+        <v>3551889.52458583</v>
       </c>
       <c r="G33">
-        <v>0.41947510945608701</v>
+        <v>0.79308200354184599</v>
       </c>
       <c r="H33">
-        <v>10968446.512858899</v>
+        <v>9966130.4495193996</v>
       </c>
       <c r="I33">
-        <v>6173876.3628997896</v>
+        <v>3659639.3584988099</v>
       </c>
       <c r="J33">
-        <v>1.9139367328218799</v>
+        <v>2.8058672378560301</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1754,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F34">
-        <v>6743112.9734034901</v>
+        <v>3769031.3024376398</v>
       </c>
       <c r="G34">
-        <v>0.36044698136019898</v>
+        <v>0.77488039228597805</v>
       </c>
       <c r="H34">
-        <v>12566636.562845301</v>
+        <v>10386563.1889208</v>
       </c>
       <c r="I34">
-        <v>7609072.0726048201</v>
+        <v>3882040.8157841102</v>
       </c>
       <c r="J34">
-        <v>1.8636253926652599</v>
+        <v>2.7557646396312001</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1784,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F35">
-        <v>8626998.5234355908</v>
+        <v>3997068.0880951099</v>
       </c>
       <c r="G35">
-        <v>0.28769701770825401</v>
+        <v>0.75557264338328201</v>
       </c>
       <c r="H35">
-        <v>15045418.807965601</v>
+        <v>10851171.9298591</v>
       </c>
       <c r="I35">
-        <v>9883075.3017673306</v>
+        <v>4116718.3275312702</v>
       </c>
       <c r="J35">
-        <v>1.7439922780900099</v>
+        <v>2.71478285851029</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1814,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F36">
-        <v>11239241.655257201</v>
+        <v>4239048.5347681502</v>
       </c>
       <c r="G36">
-        <v>0.193205421083532</v>
+        <v>0.73509770055220203</v>
       </c>
       <c r="H36">
-        <v>20207762.3141638</v>
+        <v>11369206.822345899</v>
       </c>
       <c r="I36">
-        <v>11406435.8660117</v>
+        <v>4367777.1754512098</v>
       </c>
       <c r="J36">
-        <v>1.79796492806181</v>
+        <v>2.6820185541866399</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1844,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F37">
-        <v>11584067.7256725</v>
+        <v>4500358.2862722604</v>
       </c>
       <c r="G37">
-        <v>0.18229978388187901</v>
+        <v>0.71337408944959602</v>
       </c>
       <c r="H37">
-        <v>21185687.475069601</v>
+        <v>11952659.292920399</v>
       </c>
       <c r="I37">
-        <v>11792552.7440184</v>
+        <v>4642497.0141726499</v>
       </c>
       <c r="J37">
-        <v>1.8288642622589399</v>
+        <v>2.65593504618964</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1874,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F38">
-        <v>12023216.0891844</v>
+        <v>4790586.3211697396</v>
       </c>
       <c r="G38">
-        <v>0.171024982233203</v>
+        <v>0.69028412958448904</v>
       </c>
       <c r="H38">
-        <v>22359829.316450901</v>
+        <v>12617219.5000793</v>
       </c>
       <c r="I38">
-        <v>12319746.784542199</v>
+        <v>4953934.9635768197</v>
       </c>
       <c r="J38">
-        <v>1.8597211553541699</v>
+        <v>2.6337526670427498</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1904,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F39">
-        <v>12663959.6256223</v>
+        <v>5127054.9305676799</v>
       </c>
       <c r="G39">
-        <v>0.159246132956648</v>
+        <v>0.66564519947120404</v>
       </c>
       <c r="H39">
-        <v>23794126.821009301</v>
+        <v>13383547.9537296</v>
       </c>
       <c r="I39">
-        <v>13151733.325251799</v>
+        <v>5325947.6101499796</v>
       </c>
       <c r="J39">
-        <v>1.87888524003724</v>
+        <v>2.6103773286953502</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1934,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F40">
-        <v>13744650.9439198</v>
+        <v>5541744.9742929405</v>
       </c>
       <c r="G40">
-        <v>0.14667182544263499</v>
+        <v>0.63915602431684204</v>
       </c>
       <c r="H40">
-        <v>25567859.0703023</v>
+        <v>14278836.880794</v>
       </c>
       <c r="I40">
-        <v>14588596.199423499</v>
+        <v>5803271.9347169204</v>
       </c>
       <c r="J40">
-        <v>1.86020432054789</v>
+        <v>2.5765958099895698</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +1964,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F41">
-        <v>15546009.247215001</v>
+        <v>6095463.1201239098</v>
       </c>
       <c r="G41">
-        <v>0.13272374040527499</v>
+        <v>0.610292825126871</v>
       </c>
       <c r="H41">
-        <v>27763711.644478001</v>
+        <v>15338282.499053599</v>
       </c>
       <c r="I41">
-        <v>16654515.0231349</v>
+        <v>6465964.95236044</v>
       </c>
       <c r="J41">
-        <v>1.78590602919214</v>
+        <v>2.51634407374477</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +1994,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F42">
-        <v>17786619.4080026</v>
+        <v>6879816.5208035996</v>
       </c>
       <c r="G42">
-        <v>0.116800440546728</v>
+        <v>0.57813365070340705</v>
       </c>
       <c r="H42">
-        <v>30541010.7998138</v>
+        <v>16605756.4342955</v>
       </c>
       <c r="I42">
-        <v>18833704.4140139</v>
+        <v>7382301.4311472001</v>
       </c>
       <c r="J42">
-        <v>1.7170778830558799</v>
+        <v>2.4136917582150601</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2024,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F43">
-        <v>19784484.5031556</v>
+        <v>7929366.7573634004</v>
       </c>
       <c r="G43">
-        <v>0.098793628435117006</v>
+        <v>0.54141697792215704</v>
       </c>
       <c r="H43">
-        <v>34443446.261747003</v>
+        <v>18142998.934820201</v>
       </c>
       <c r="I43">
-        <v>20830842.3025783</v>
+        <v>8563741.8952124808</v>
       </c>
       <c r="J43">
-        <v>1.7409322065608199</v>
+        <v>2.2880766510102699</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2054,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F44">
-        <v>22596012.920722201</v>
+        <v>9240221.2822580598</v>
       </c>
       <c r="G44">
-        <v>0.078877362615950103</v>
+        <v>0.49882428350535202</v>
       </c>
       <c r="H44">
-        <v>41249748.241331398</v>
+        <v>20058850.342741702</v>
       </c>
       <c r="I44">
-        <v>27270746.764238201</v>
+        <v>9999608.8111673705</v>
       </c>
       <c r="J44">
-        <v>1.82553215852972</v>
+        <v>2.1708192617915198</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2084,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F45">
-        <v>31365124.646978602</v>
+        <v>10803679.7878503</v>
       </c>
       <c r="G45">
-        <v>0.052803935831065303</v>
+        <v>0.44909015003973002</v>
       </c>
       <c r="H45">
-        <v>55228749.718424603</v>
+        <v>22573660.725635301</v>
       </c>
       <c r="I45">
-        <v>32093863.601473499</v>
+        <v>11749420.645271201</v>
       </c>
       <c r="J45">
-        <v>1.7608331017343699</v>
+        <v>2.08944185397104</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2114,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F46">
-        <v>33012490.084519099</v>
+        <v>12835498.4069483</v>
       </c>
       <c r="G46">
-        <v>0.049735457325172899</v>
+        <v>0.39065313859753398</v>
       </c>
       <c r="H46">
-        <v>57799292.620307699</v>
+        <v>26181740.752423301</v>
       </c>
       <c r="I46">
-        <v>34276417.288760602</v>
+        <v>14659637.8005598</v>
       </c>
       <c r="J46">
-        <v>1.75083104825867</v>
+        <v>2.0397915158674498</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2144,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F47">
-        <v>35680239.474144898</v>
+        <v>17126518.847672898</v>
       </c>
       <c r="G47">
-        <v>0.046458305935250202</v>
+        <v>0.31774184809619899</v>
       </c>
       <c r="H47">
-        <v>60739652.036750697</v>
+        <v>31942792.228355099</v>
       </c>
       <c r="I47">
-        <v>37235512.089702897</v>
+        <v>20991910.152890801</v>
       </c>
       <c r="J47">
-        <v>1.7023330821746501</v>
+        <v>1.86510711910934</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2174,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F48">
-        <v>38771188.737221397</v>
+        <v>25696294.365929101</v>
       </c>
       <c r="G48">
-        <v>0.042898236947547998</v>
+        <v>0.21333631774422099</v>
       </c>
       <c r="H48">
-        <v>64097386.314899899</v>
+        <v>42893674.303819299</v>
       </c>
       <c r="I48">
-        <v>39932838.703738399</v>
+        <v>26485835.932297699</v>
       </c>
       <c r="J48">
-        <v>1.65322210648044</v>
+        <v>1.66925525108758</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2204,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F49">
-        <v>40683646.202249698</v>
+        <v>27346578.898632601</v>
       </c>
       <c r="G49">
-        <v>0.039080277889603103</v>
+        <v>0.20016330143847899</v>
       </c>
       <c r="H49">
-        <v>68124810.916759297</v>
+        <v>44716767.456210598</v>
       </c>
       <c r="I49">
-        <v>42198492.879592299</v>
+        <v>28339741.497626301</v>
       </c>
       <c r="J49">
-        <v>1.6745011147253599</v>
+        <v>1.6351868956612501</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2234,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F50">
-        <v>43713339.556933299</v>
+        <v>29382168.271236598</v>
       </c>
       <c r="G50">
-        <v>0.0350457007508089</v>
+        <v>0.18606822519459501</v>
       </c>
       <c r="H50">
-        <v>73310074.524191603</v>
+        <v>46763895.701033697</v>
       </c>
       <c r="I50">
-        <v>46436638.003627203</v>
+        <v>30427916.459897701</v>
       </c>
       <c r="J50">
-        <v>1.6770641471743599</v>
+        <v>1.5915740209960201</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2264,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F51">
-        <v>51432037.988363899</v>
+        <v>31394489.003305402</v>
       </c>
       <c r="G51">
-        <v>0.030605916642251301</v>
+        <v>0.170934572600032</v>
       </c>
       <c r="H51">
-        <v>80028433.654330805</v>
+        <v>49097607.021195903</v>
       </c>
       <c r="I51">
-        <v>54567589.897840597</v>
+        <v>32017479.261327799</v>
       </c>
       <c r="J51">
-        <v>1.5560035492359201</v>
+        <v>1.56389253591694</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2294,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F52">
-        <v>55955931.159949899</v>
+        <v>32554485.009273201</v>
       </c>
       <c r="G52">
-        <v>0.025388736224236</v>
+        <v>0.15501033379343601</v>
       </c>
       <c r="H52">
-        <v>88515381.573170304</v>
+        <v>51944294.981173903</v>
       </c>
       <c r="I52">
-        <v>71362222.013356894</v>
+        <v>33511489.768729001</v>
       </c>
       <c r="J52">
-        <v>1.5818766614775699</v>
+        <v>1.59561101846266</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2324,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.995</v>
       </c>
       <c r="F53">
-        <v>80392286.971370995</v>
+        <v>34958545.812342003</v>
       </c>
       <c r="G53">
-        <v>0.018565829294119401</v>
+        <v>0.13834303273933399</v>
       </c>
       <c r="H53">
-        <v>97091961.353076801</v>
+        <v>55630856.023662902</v>
       </c>
       <c r="I53">
-        <v>88491325.216571793</v>
+        <v>37485250.554207698</v>
       </c>
       <c r="J53">
-        <v>1.2077273207522099</v>
+        <v>1.5913378182917099</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2354,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="F54">
-        <v>96769120.755408794</v>
+        <v>40154661.817384697</v>
       </c>
       <c r="G54">
-        <v>0.0101052172357906</v>
+        <v>0.11969933887829701</v>
       </c>
       <c r="H54">
-        <v>105692597.489582</v>
+        <v>60167257.391026802</v>
       </c>
       <c r="I54">
-        <v>97621491.448839694</v>
+        <v>41437838.0783398</v>
       </c>
       <c r="J54">
-        <v>1.09221409334418</v>
+        <v>1.4983878500746799</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2384,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.997</v>
       </c>
       <c r="F55">
-        <v>98476735.556403205</v>
+        <v>42537687.094589502</v>
       </c>
       <c r="G55">
-        <v>0.0091718629599008093</v>
+        <v>0.099089782960334702</v>
       </c>
       <c r="H55">
-        <v>106589387.04966</v>
+        <v>66410397.161922403</v>
       </c>
       <c r="I55">
-        <v>99338082.071231902</v>
+        <v>44670844.464345902</v>
       </c>
       <c r="J55">
-        <v>1.08238140153022</v>
+        <v>1.5612131664386899</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2414,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.998</v>
       </c>
       <c r="F56">
-        <v>100202674.987855</v>
+        <v>50936663.654178597</v>
       </c>
       <c r="G56">
-        <v>0.0082220964455420008</v>
+        <v>0.076872256429389205</v>
       </c>
       <c r="H56">
-        <v>107495800.17196</v>
+        <v>77280173.510710701</v>
       </c>
       <c r="I56">
-        <v>101074213.696272</v>
+        <v>55649356.559737101</v>
       </c>
       <c r="J56">
-        <v>1.0727837374100899</v>
+        <v>1.51718169127418</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2444,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="F57">
-        <v>101949476.91329201</v>
+        <v>68480672.128838897</v>
       </c>
       <c r="G57">
-        <v>0.00725573086213855</v>
+        <v>0.049194448440269503</v>
       </c>
       <c r="H57">
-        <v>108413169.66849101</v>
+        <v>98910990.461684301</v>
       </c>
       <c r="I57">
-        <v>102832784.895437</v>
+        <v>69660810.049053907</v>
       </c>
       <c r="J57">
-        <v>1.0634009408473499</v>
+        <v>1.4443636048956101</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2474,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F58">
-        <v>103720451.223184</v>
+        <v>70894227.709698707</v>
       </c>
       <c r="G58">
-        <v>0.0062725516660482403</v>
+        <v>0.045729792882510403</v>
       </c>
       <c r="H58">
-        <v>109343233.79732899</v>
+        <v>102161010.507532</v>
       </c>
       <c r="I58">
-        <v>104617650.98746599</v>
+        <v>72248341.070521802</v>
       </c>
       <c r="J58">
-        <v>1.0542109343705599</v>
+        <v>1.44103425353423</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2504,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F59">
-        <v>105520087.505477</v>
+        <v>73670975.592775404</v>
       </c>
       <c r="G59">
-        <v>0.0052723074530722502</v>
+        <v>0.0421364436772316</v>
       </c>
       <c r="H59">
-        <v>110288350.35930701</v>
+        <v>105900094.18715701</v>
       </c>
       <c r="I59">
-        <v>106434182.471838</v>
+        <v>75251258.983088598</v>
       </c>
       <c r="J59">
-        <v>1.0451882003375099</v>
+        <v>1.43747375862826</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2534,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F60">
-        <v>107354808.38736001</v>
+        <v>76922501.350863501</v>
       </c>
       <c r="G60">
-        <v>0.0042546954719749498</v>
+        <v>0.038393741109166102</v>
       </c>
       <c r="H60">
-        <v>111251892.331168</v>
+        <v>110278499.216309</v>
       </c>
       <c r="I60">
-        <v>108290361.956909</v>
+        <v>78807231.850801095</v>
       </c>
       <c r="J60">
-        <v>1.03630097247016</v>
+        <v>1.43363121686983</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2564,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="F61">
-        <v>109234533.325363</v>
+        <v>80817741.580934793</v>
       </c>
       <c r="G61">
-        <v>0.0032193366501616599</v>
+        <v>0.034474178393326102</v>
       </c>
       <c r="H61">
-        <v>112239069.122584</v>
+        <v>115523710.443893</v>
       </c>
       <c r="I61">
-        <v>110199284.43805601</v>
+        <v>83131427.051656306</v>
       </c>
       <c r="J61">
-        <v>1.02750536580105</v>
+        <v>1.4294350248354999</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2594,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F62">
-        <v>111176553.322705</v>
+        <v>85628824.297670901</v>
       </c>
       <c r="G62">
-        <v>0.00216572671443042</v>
+        <v>0.030339547162995299</v>
       </c>
       <c r="H62">
-        <v>113258961.464853</v>
+        <v>122002167.122339</v>
       </c>
       <c r="I62">
-        <v>112186483.384799</v>
+        <v>88585879.712761194</v>
       </c>
       <c r="J62">
-        <v>1.0187306413080099</v>
+        <v>1.4247791923222399</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2624,389 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F63">
+        <v>91832791.183354899</v>
+      </c>
+      <c r="G63">
+        <v>0.025933632843743799</v>
+      </c>
+      <c r="H63">
+        <v>130356238.974731</v>
+      </c>
+      <c r="I63">
+        <v>95846929.2635528</v>
+      </c>
+      <c r="J63">
+        <v>1.4194955559442799</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F64">
+        <v>100375316.651934</v>
+      </c>
+      <c r="G64">
+        <v>0.0211665823897852</v>
+      </c>
+      <c r="H64">
+        <v>141859342.211804</v>
+      </c>
+      <c r="I64">
+        <v>106400715.765119</v>
+      </c>
+      <c r="J64">
+        <v>1.4132891127379601</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F65">
+        <v>113541599.40446199</v>
+      </c>
+      <c r="G65">
+        <v>0.015874627975738499</v>
+      </c>
+      <c r="H65">
+        <v>159588655.43514499</v>
+      </c>
+      <c r="I65">
+        <v>124647164.062047</v>
+      </c>
+      <c r="J65">
+        <v>1.40555229336388</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F66">
+        <v>139490125.97274101</v>
+      </c>
+      <c r="G66">
+        <v>0.0096751667661666308</v>
+      </c>
+      <c r="H66">
+        <v>194530146.80824301</v>
+      </c>
+      <c r="I66">
+        <v>141624668.73390499</v>
+      </c>
+      <c r="J66">
+        <v>1.39458004967504</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F67">
+        <v>143855579.79430601</v>
+      </c>
+      <c r="G67">
+        <v>0.0089707811937091899</v>
+      </c>
+      <c r="H67">
+        <v>200408533.260919</v>
+      </c>
+      <c r="I67">
+        <v>146304795.960154</v>
+      </c>
+      <c r="J67">
+        <v>1.3931231138025799</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F68">
+        <v>148877947.93607101</v>
+      </c>
+      <c r="G68">
+        <v>0.0082431185034663196</v>
+      </c>
+      <c r="H68">
+        <v>207171500.42347601</v>
+      </c>
+      <c r="I68">
+        <v>151736243.06720099</v>
+      </c>
+      <c r="J68">
+        <v>1.39155263284819</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F69">
+        <v>154759057.80537599</v>
+      </c>
+      <c r="G69">
+        <v>0.00748844192492881</v>
+      </c>
+      <c r="H69">
+        <v>215090822.90299499</v>
+      </c>
+      <c r="I69">
+        <v>158168013.467659</v>
+      </c>
+      <c r="J69">
+        <v>1.3898431920766301</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F70">
+        <v>161804468.93372199</v>
+      </c>
+      <c r="G70">
+        <v>0.0067017762422701401</v>
+      </c>
+      <c r="H70">
+        <v>224577957.80883399</v>
+      </c>
+      <c r="I70">
+        <v>165989285.37641799</v>
+      </c>
+      <c r="J70">
+        <v>1.3879589314731799</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F71">
+        <v>170506385.55765301</v>
+      </c>
+      <c r="G71">
+        <v>0.0058762106197820501</v>
+      </c>
+      <c r="H71">
+        <v>236295692.29539299</v>
+      </c>
+      <c r="I71">
+        <v>175854880.104359</v>
+      </c>
+      <c r="J71">
+        <v>1.3858465858775399</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F72">
+        <v>181727644.005041</v>
+      </c>
+      <c r="G72">
+        <v>0.0050015773973420101</v>
+      </c>
+      <c r="H72">
+        <v>251405895.34307</v>
+      </c>
+      <c r="I72">
+        <v>188988108.42583501</v>
+      </c>
+      <c r="J72">
+        <v>1.3834213100572399</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F73">
+        <v>197178707.46852201</v>
+      </c>
+      <c r="G73">
+        <v>0.0040616246466577601</v>
+      </c>
+      <c r="H73">
+        <v>272211824.315328</v>
+      </c>
+      <c r="I73">
+        <v>208076986.25434399</v>
+      </c>
+      <c r="J73">
+        <v>1.3805335667837499</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F74">
+        <v>220992867.71166199</v>
+      </c>
+      <c r="G74">
+        <v>0.0030267313022291501</v>
+      </c>
+      <c r="H74">
+        <v>304279243.34599</v>
+      </c>
+      <c r="I74">
+        <v>241079759.45734799</v>
+      </c>
+      <c r="J74">
+        <v>1.3768735909748699</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>113218704.03982601</v>
-      </c>
-      <c r="G63">
-        <v>0.00109311726736908</v>
-      </c>
-      <c r="H63">
-        <v>114331439.54489499</v>
-      </c>
-      <c r="I63">
-        <v>114331439.544892</v>
-      </c>
-      <c r="J63">
-        <v>1.0098281950363699</v>
+      <c r="F75">
+        <v>267926568.086862</v>
+      </c>
+      <c r="G75">
+        <v>0.0018276951040063201</v>
+      </c>
+      <c r="H75">
+        <v>367478727.233926</v>
+      </c>
+      <c r="I75">
+        <v>367478727.23393703</v>
+      </c>
+      <c r="J75">
+        <v>1.3715650891134801</v>
       </c>
     </row>
   </sheetData>
